--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2220,7 +2220,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 04</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2303,7 +2303,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2380,172 +2380,6 @@
         <v>5</v>
       </c>
       <c r="W24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 06</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>5</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>5</v>
-      </c>
-      <c r="P25">
-        <v>5</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>3</v>
-      </c>
-      <c r="S25">
-        <v>3</v>
-      </c>
-      <c r="T25">
-        <v>35</v>
-      </c>
-      <c r="U25">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="V25">
-        <v>5</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>White River Lower 08</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Lower White River</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>5</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>5</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-      <c r="R26">
-        <v>4</v>
-      </c>
-      <c r="S26">
-        <v>5</v>
-      </c>
-      <c r="T26">
-        <v>34</v>
-      </c>
-      <c r="U26">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="V26">
-        <v>5</v>
-      </c>
-      <c r="W26">
         <v>3</v>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1307,7 +1307,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1336,13 +1336,13 @@
         </is>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1363,25 +1363,25 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q12">
         <v>3</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
       <c r="T12">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U12">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W12">
         <v>3</v>
@@ -1390,7 +1390,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1422,22 +1422,22 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1446,25 +1446,25 @@
         <v>5</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U13">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W13">
         <v>3</v>
@@ -1473,17 +1473,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1502,19 +1502,19 @@
         </is>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -1526,28 +1526,28 @@
         <v>3</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P14">
         <v>5</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14">
         <v>5</v>
       </c>
       <c r="T14">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U14">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W14">
         <v>3</v>
@@ -1556,17 +1556,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1606,28 +1606,28 @@
         <v>5</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>5</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U15">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1639,7 +1639,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1683,28 +1683,28 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>5</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>32</v>
@@ -1722,7 +1722,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1751,49 +1751,49 @@
         </is>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P17">
         <v>3</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17">
         <v>5</v>
       </c>
       <c r="T17">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U17">
-        <v>0.7777777777777778</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -1805,7 +1805,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1846,40 +1846,40 @@
         <v>5</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>5</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <v>3</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S18">
         <v>5</v>
       </c>
       <c r="T18">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U18">
-        <v>0.8666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W18">
         <v>3</v>
@@ -1888,7 +1888,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1917,13 +1917,13 @@
         </is>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>5</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -1932,10 +1932,10 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1944,25 +1944,25 @@
         <v>5</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S19">
         <v>5</v>
       </c>
       <c r="T19">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U19">
-        <v>0.7111111111111111</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W19">
         <v>3</v>
@@ -1971,17 +1971,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2015,37 +2015,37 @@
         <v>5</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>3</v>
       </c>
       <c r="N20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <v>5</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U20">
-        <v>0.8</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20">
         <v>3</v>
@@ -2054,7 +2054,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O21">
         <v>5</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>36</v>
@@ -2137,7 +2137,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2181,37 +2181,37 @@
         <v>5</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22">
         <v>3</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O22">
         <v>5</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U22">
-        <v>0.7555555555555555</v>
+        <v>0.8</v>
       </c>
       <c r="V22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W22">
         <v>3</v>
@@ -2220,17 +2220,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2252,10 +2252,10 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -2288,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="T23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U23">
-        <v>0.7333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V23">
         <v>5</v>
@@ -2303,7 +2303,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Twisp River Middle 05</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2347,7 +2347,7 @@
         <v>5</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M24">
         <v>3</v>
@@ -2371,15 +2371,264 @@
         <v>1</v>
       </c>
       <c r="T24">
+        <v>33</v>
+      </c>
+      <c r="U24">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="V24">
+        <v>5</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 02</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
         <v>35</v>
       </c>
-      <c r="U24">
+      <c r="U25">
         <v>0.7777777777777778</v>
       </c>
-      <c r="V24">
-        <v>5</v>
-      </c>
-      <c r="W24">
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 06</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>35</v>
+      </c>
+      <c r="U26">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>White River Lower 08</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Lower White River</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>34</v>
+      </c>
+      <c r="U27">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27">
         <v>3</v>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -1932,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1956,13 +1956,13 @@
         <v>5</v>
       </c>
       <c r="T19">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U19">
-        <v>0.8666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W19">
         <v>3</v>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,12 +435,12 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Riparian-CanopyCover_score</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Riparian-Disturbance_score</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Riparian-CanopyCover_score</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -533,10 +533,10 @@
         <v>3</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2">
         <v>4</v>
@@ -560,7 +560,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Doe 05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -616,22 +616,22 @@
         <v>5</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U3">
-        <v>0.7555555555555555</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -643,17 +643,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -693,31 +693,31 @@
         <v>5</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O4">
         <v>5</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <v>4</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U4">
-        <v>0.8</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -726,7 +726,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -776,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -785,22 +785,22 @@
         <v>3</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5">
         <v>5</v>
       </c>
       <c r="T5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="V5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -809,7 +809,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Entiat River Lake 05</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -868,31 +868,31 @@
         <v>5</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6">
         <v>5</v>
       </c>
       <c r="T6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U6">
-        <v>0.8888888888888888</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Entiat River Lake 06</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -933,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -945,28 +945,28 @@
         <v>3</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7">
         <v>5</v>
       </c>
       <c r="T7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="U7">
-        <v>0.8222222222222222</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W7">
         <v>3</v>
@@ -975,7 +975,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entiat River Lake 07</t>
+          <t>Entiat River Lake 05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1000,35 +1000,35 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>5</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8">
         <v>5</v>
@@ -1043,22 +1043,22 @@
         <v>5</v>
       </c>
       <c r="T8">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="U8">
-        <v>0.7333333333333333</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Lake 06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1099,16 +1099,16 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <v>5</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>3</v>
@@ -1117,22 +1117,22 @@
         <v>5</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9">
         <v>5</v>
       </c>
       <c r="T9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U9">
-        <v>0.7777777777777778</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -1141,7 +1141,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1170,13 +1170,13 @@
         </is>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1191,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -1224,7 +1224,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1274,31 +1274,31 @@
         <v>5</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U11">
-        <v>0.7777777777777778</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -1307,7 +1307,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1348,37 +1348,37 @@
         <v>5</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>3</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P12">
         <v>5</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U12">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V12">
         <v>3</v>
@@ -1390,7 +1390,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1419,28 +1419,28 @@
         </is>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O13">
         <v>5</v>
@@ -1458,13 +1458,13 @@
         <v>3</v>
       </c>
       <c r="T13">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="U13">
-        <v>0.7333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W13">
         <v>3</v>
@@ -1473,7 +1473,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1502,43 +1502,43 @@
         </is>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
         <v>4</v>
       </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>5</v>
-      </c>
-      <c r="Q14">
-        <v>5</v>
-      </c>
-      <c r="R14">
-        <v>5</v>
-      </c>
       <c r="S14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T14">
         <v>36</v>
@@ -1556,17 +1556,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1603,31 +1603,31 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>3</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15">
         <v>5</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U15">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1639,17 +1639,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1668,49 +1668,49 @@
         </is>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <v>5</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16">
         <v>3</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U16">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1722,17 +1722,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1763,16 +1763,16 @@
         <v>5</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <v>3</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <v>5</v>
@@ -1781,19 +1781,19 @@
         <v>3</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U17">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -1805,17 +1805,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>5</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M18">
         <v>5</v>
@@ -1858,28 +1858,28 @@
         <v>3</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18">
         <v>5</v>
       </c>
       <c r="T18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U18">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="V18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W18">
         <v>3</v>
@@ -1888,17 +1888,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1929,37 +1929,37 @@
         <v>5</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>3</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>5</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S19">
         <v>5</v>
       </c>
       <c r="T19">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U19">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -1971,7 +1971,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2000,52 +2000,52 @@
         </is>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>5</v>
       </c>
       <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
         <v>4</v>
       </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
       <c r="S20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U20">
-        <v>0.7111111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W20">
         <v>3</v>
@@ -2054,17 +2054,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2086,19 +2086,19 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21">
         <v>5</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M21">
         <v>3</v>
@@ -2110,25 +2110,25 @@
         <v>5</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>3</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U21">
-        <v>0.8</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W21">
         <v>3</v>
@@ -2137,17 +2137,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2166,49 +2166,49 @@
         </is>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
       <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
         <v>4</v>
       </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>5</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <v>5</v>
-      </c>
-      <c r="R22">
-        <v>5</v>
-      </c>
       <c r="S22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T22">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U22">
-        <v>0.8</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="V22">
         <v>3</v>
@@ -2220,17 +2220,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2249,13 +2249,13 @@
         </is>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>5</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -2264,10 +2264,10 @@
         <v>5</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -2276,34 +2276,34 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="U23">
-        <v>0.7555555555555555</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="V23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2335,10 +2335,10 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24">
         <v>5</v>
@@ -2347,34 +2347,34 @@
         <v>5</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>3</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O24">
         <v>5</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q24">
         <v>3</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T24">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U24">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2386,7 +2386,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2418,10 +2418,10 @@
         <v>3</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <v>5</v>
@@ -2430,28 +2430,28 @@
         <v>5</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>3</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O25">
         <v>5</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q25">
         <v>3</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25">
         <v>35</v>
@@ -2469,7 +2469,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Methow River Thompson 09</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2498,25 +2498,25 @@
         </is>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <v>5</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26">
         <v>5</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>3</v>
@@ -2528,19 +2528,19 @@
         <v>5</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26">
         <v>3</v>
       </c>
       <c r="T26">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U26">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2552,83 +2552,581 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Nason Creek Lower 01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>38</v>
+      </c>
+      <c r="U27">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 02</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>40</v>
+      </c>
+      <c r="U28">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 03</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>36</v>
+      </c>
+      <c r="U29">
+        <v>0.8</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>33</v>
+      </c>
+      <c r="U30">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 02</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>35</v>
+      </c>
+      <c r="U31">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 06</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>37</v>
+      </c>
+      <c r="U32">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>White River Lower 08</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Lower White River</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>5</v>
-      </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>5</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="R27">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
         <v>4</v>
       </c>
-      <c r="S27">
-        <v>5</v>
-      </c>
-      <c r="T27">
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
         <v>34</v>
       </c>
-      <c r="U27">
+      <c r="U33">
         <v>0.7555555555555555</v>
       </c>
-      <c r="V27">
-        <v>5</v>
-      </c>
-      <c r="W27">
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
         <v>3</v>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,28 +865,28 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6">
         <v>5</v>
       </c>
       <c r="T6">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U6">
-        <v>0.9111111111111111</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -948,22 +948,22 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>5</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7">
         <v>5</v>
       </c>
       <c r="T7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U7">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V7">
         <v>5</v>
@@ -1031,28 +1031,28 @@
         <v>5</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8">
         <v>5</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8">
         <v>5</v>
       </c>
       <c r="T8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U8">
-        <v>0.9111111111111111</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1114,22 +1114,22 @@
         <v>3</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <v>5</v>
       </c>
       <c r="T9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9">
-        <v>0.8444444444444444</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V9">
         <v>3</v>
@@ -1556,7 +1556,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -1612,22 +1612,22 @@
         <v>5</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15">
         <v>3</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S15">
         <v>3</v>
       </c>
       <c r="T15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U15">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -1639,7 +1639,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1722,7 +1722,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1754,22 +1754,22 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>3</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1778,25 +1778,25 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U17">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="V17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W17">
         <v>3</v>
@@ -1805,17 +1805,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1834,19 +1834,19 @@
         </is>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>5</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -1858,28 +1858,28 @@
         <v>3</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S18">
         <v>5</v>
       </c>
       <c r="T18">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U18">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W18">
         <v>3</v>
@@ -1888,17 +1888,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1938,31 +1938,31 @@
         <v>5</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <v>5</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U19">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W19">
         <v>3</v>
@@ -1971,7 +1971,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2000,13 +2000,13 @@
         </is>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -2015,10 +2015,10 @@
         <v>3</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20">
         <v>5</v>
@@ -2027,25 +2027,25 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U20">
-        <v>0.8</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20">
         <v>3</v>
@@ -2054,7 +2054,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2083,52 +2083,52 @@
         </is>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>5</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <v>5</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q21">
         <v>3</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21">
         <v>5</v>
       </c>
       <c r="T21">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="U21">
-        <v>0.7111111111111111</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W21">
         <v>3</v>
@@ -2137,7 +2137,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2178,10 +2178,10 @@
         <v>5</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M22">
         <v>5</v>
@@ -2190,37 +2190,37 @@
         <v>5</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P22">
         <v>5</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22">
         <v>5</v>
       </c>
       <c r="T22">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="U22">
-        <v>0.8444444444444444</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2249,13 +2249,13 @@
         </is>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>5</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -2267,43 +2267,43 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O23">
         <v>5</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S23">
         <v>5</v>
       </c>
       <c r="T23">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="U23">
-        <v>0.9111111111111111</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2359,22 +2359,22 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>5</v>
       </c>
       <c r="T24">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U24">
-        <v>0.7777777777777778</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V24">
         <v>5</v>
@@ -2386,17 +2386,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2430,37 +2430,37 @@
         <v>5</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>3</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O25">
         <v>5</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q25">
         <v>3</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U25">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="V25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W25">
         <v>3</v>
@@ -2469,17 +2469,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Methow River Thompson 09</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2513,13 +2513,13 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>3</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O26">
         <v>5</v>
@@ -2528,22 +2528,22 @@
         <v>5</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26">
         <v>3</v>
       </c>
       <c r="T26">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="U26">
-        <v>0.7333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W26">
         <v>3</v>
@@ -2552,7 +2552,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2596,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27">
         <v>3</v>
@@ -2608,25 +2608,25 @@
         <v>5</v>
       </c>
       <c r="P27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S27">
         <v>1</v>
       </c>
       <c r="T27">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U27">
-        <v>0.8444444444444444</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W27">
         <v>3</v>
@@ -2635,17 +2635,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2667,10 +2667,10 @@
         <v>3</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2679,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M28">
         <v>3</v>
@@ -2691,25 +2691,25 @@
         <v>5</v>
       </c>
       <c r="P28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="U28">
-        <v>0.8888888888888888</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W28">
         <v>3</v>
@@ -2718,17 +2718,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2750,10 +2750,10 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -2762,7 +2762,7 @@
         <v>5</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M29">
         <v>3</v>
@@ -2774,25 +2774,25 @@
         <v>5</v>
       </c>
       <c r="P29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S29">
         <v>1</v>
       </c>
       <c r="T29">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U29">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W29">
         <v>3</v>
@@ -2801,7 +2801,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2830,25 +2830,25 @@
         </is>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>5</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30">
         <v>5</v>
@@ -2857,25 +2857,25 @@
         <v>5</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30">
         <v>3</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U30">
-        <v>0.7333333333333333</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W30">
         <v>3</v>
@@ -2884,17 +2884,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2913,220 +2913,54 @@
         </is>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31">
         <v>5</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>5</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <v>3</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U31">
-        <v>0.7777777777777778</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V31">
         <v>5</v>
       </c>
       <c r="W31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 06</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
-      <c r="J32">
-        <v>5</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-      <c r="M32">
-        <v>5</v>
-      </c>
-      <c r="N32">
-        <v>5</v>
-      </c>
-      <c r="O32">
-        <v>5</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>5</v>
-      </c>
-      <c r="R32">
-        <v>3</v>
-      </c>
-      <c r="S32">
-        <v>3</v>
-      </c>
-      <c r="T32">
-        <v>37</v>
-      </c>
-      <c r="U32">
-        <v>0.8222222222222222</v>
-      </c>
-      <c r="V32">
-        <v>3</v>
-      </c>
-      <c r="W32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>White River Lower 08</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Lower White River</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-      <c r="J33">
-        <v>5</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>5</v>
-      </c>
-      <c r="M33">
-        <v>5</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
-        <v>3</v>
-      </c>
-      <c r="Q33">
-        <v>5</v>
-      </c>
-      <c r="R33">
-        <v>4</v>
-      </c>
-      <c r="S33">
-        <v>5</v>
-      </c>
-      <c r="T33">
-        <v>34</v>
-      </c>
-      <c r="U33">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="V33">
-        <v>5</v>
-      </c>
-      <c r="W33">
         <v>3</v>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1058,7 +1058,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Entiat River Lake 06</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1099,10 +1099,10 @@
         <v>5</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>5</v>
@@ -1114,13 +1114,13 @@
         <v>3</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S9">
         <v>5</v>
@@ -1141,7 +1141,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Entiat River Lake 07</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1170,13 +1170,13 @@
         </is>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1209,13 +1209,13 @@
         <v>5</v>
       </c>
       <c r="T10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U10">
-        <v>0.7777777777777778</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -1224,7 +1224,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1274,28 +1274,28 @@
         <v>5</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U11">
-        <v>0.8222222222222222</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V11">
         <v>3</v>
@@ -1307,7 +1307,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1348,37 +1348,37 @@
         <v>5</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>3</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <v>5</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U12">
-        <v>0.8222222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="V12">
         <v>3</v>
@@ -1390,7 +1390,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1419,28 +1419,28 @@
         </is>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>5</v>
@@ -1458,13 +1458,13 @@
         <v>3</v>
       </c>
       <c r="T13">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U13">
-        <v>0.8666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W13">
         <v>3</v>
@@ -1473,7 +1473,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1532,22 +1532,22 @@
         <v>3</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S14">
         <v>3</v>
       </c>
       <c r="T14">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U14">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W14">
         <v>3</v>
@@ -1556,7 +1556,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1588,22 +1588,22 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -1612,25 +1612,25 @@
         <v>5</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T15">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U15">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="V15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W15">
         <v>3</v>
@@ -1639,17 +1639,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1668,43 +1668,43 @@
         </is>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>3</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>3</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T16">
         <v>33</v>
@@ -1722,17 +1722,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1751,43 +1751,43 @@
         </is>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
         <v>4</v>
       </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>5</v>
-      </c>
-      <c r="P17">
-        <v>5</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>5</v>
-      </c>
       <c r="S17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>36</v>
@@ -1805,17 +1805,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1849,34 +1849,34 @@
         <v>3</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18">
         <v>5</v>
       </c>
       <c r="T18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U18">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V18">
         <v>5</v>
@@ -1888,7 +1888,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1929,10 +1929,10 @@
         <v>5</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -1941,25 +1941,25 @@
         <v>5</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P19">
         <v>3</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U19">
-        <v>0.8</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V19">
         <v>3</v>
@@ -1971,7 +1971,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2000,25 +2000,25 @@
         </is>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <v>5</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20">
         <v>5</v>
@@ -2027,34 +2027,34 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S20">
         <v>5</v>
       </c>
       <c r="T20">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="U20">
-        <v>0.7111111111111111</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2083,52 +2083,52 @@
         </is>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>5</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>5</v>
       </c>
       <c r="T21">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U21">
-        <v>0.8222222222222222</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W21">
         <v>3</v>
@@ -2137,7 +2137,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2166,13 +2166,13 @@
         </is>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -2184,53 +2184,53 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22">
         <v>5</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>5</v>
       </c>
       <c r="T22">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="U22">
-        <v>0.9111111111111111</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2264,37 +2264,37 @@
         <v>5</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M23">
         <v>3</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O23">
         <v>5</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U23">
-        <v>0.7111111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="V23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W23">
         <v>3</v>
@@ -2303,17 +2303,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2347,37 +2347,37 @@
         <v>5</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M24">
         <v>3</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O24">
         <v>5</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T24">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="U24">
-        <v>0.7111111111111111</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W24">
         <v>3</v>
@@ -2386,7 +2386,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2430,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -2454,13 +2454,13 @@
         <v>1</v>
       </c>
       <c r="T25">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U25">
-        <v>0.8</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W25">
         <v>3</v>
@@ -2469,17 +2469,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2501,10 +2501,10 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2513,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26">
         <v>3</v>
@@ -2525,25 +2525,25 @@
         <v>5</v>
       </c>
       <c r="P26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="U26">
-        <v>0.8888888888888888</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W26">
         <v>3</v>
@@ -2552,17 +2552,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2584,10 +2584,10 @@
         <v>3</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>5</v>
@@ -2596,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27">
         <v>3</v>
@@ -2620,10 +2620,10 @@
         <v>1</v>
       </c>
       <c r="T27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U27">
-        <v>0.7555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -2635,7 +2635,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2664,25 +2664,25 @@
         </is>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28">
         <v>5</v>
@@ -2691,25 +2691,25 @@
         <v>5</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28">
         <v>3</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U28">
-        <v>0.7333333333333333</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W28">
         <v>3</v>
@@ -2718,17 +2718,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2747,220 +2747,54 @@
         </is>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>5</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>5</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>3</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T29">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U29">
-        <v>0.7777777777777778</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V29">
         <v>5</v>
       </c>
       <c r="W29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 06</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>5</v>
-      </c>
-      <c r="M30">
-        <v>5</v>
-      </c>
-      <c r="N30">
-        <v>5</v>
-      </c>
-      <c r="O30">
-        <v>5</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>5</v>
-      </c>
-      <c r="R30">
-        <v>3</v>
-      </c>
-      <c r="S30">
-        <v>3</v>
-      </c>
-      <c r="T30">
-        <v>37</v>
-      </c>
-      <c r="U30">
-        <v>0.8222222222222222</v>
-      </c>
-      <c r="V30">
-        <v>3</v>
-      </c>
-      <c r="W30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>White River Lower 08</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Lower White River</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>5</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
-      <c r="M31">
-        <v>5</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>3</v>
-      </c>
-      <c r="Q31">
-        <v>5</v>
-      </c>
-      <c r="R31">
-        <v>4</v>
-      </c>
-      <c r="S31">
-        <v>5</v>
-      </c>
-      <c r="T31">
-        <v>34</v>
-      </c>
-      <c r="U31">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="V31">
-        <v>5</v>
-      </c>
-      <c r="W31">
         <v>3</v>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,12 +420,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain_score</t>
+          <t>FloodplainConnectivity_score</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels_score</t>
+          <t>Off-Channel/Side-Channels_score</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -868,19 +868,19 @@
         <v>3</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6">
         <v>5</v>
       </c>
       <c r="T6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U6">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V6">
         <v>3</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G8">
@@ -1722,7 +1722,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1766,37 +1766,37 @@
         <v>3</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <v>5</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>5</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U17">
-        <v>0.8</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W17">
         <v>3</v>
@@ -1805,7 +1805,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1849,10 +1849,10 @@
         <v>3</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <v>5</v>
@@ -1861,25 +1861,25 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U18">
-        <v>0.7111111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="V18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W18">
         <v>3</v>
@@ -1888,7 +1888,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1917,52 +1917,52 @@
         </is>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <v>5</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>5</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S19">
         <v>5</v>
       </c>
       <c r="T19">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U19">
-        <v>0.8222222222222222</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W19">
         <v>3</v>
@@ -1971,7 +1971,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2012,10 +2012,10 @@
         <v>5</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -2024,37 +2024,37 @@
         <v>5</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S20">
         <v>5</v>
       </c>
       <c r="T20">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U20">
-        <v>0.9111111111111111</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2083,13 +2083,13 @@
         </is>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -2098,46 +2098,46 @@
         <v>5</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O21">
         <v>5</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S21">
         <v>5</v>
       </c>
       <c r="T21">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="U21">
-        <v>0.7111111111111111</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2196,19 +2196,19 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22">
         <v>5</v>
       </c>
       <c r="T22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U22">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V22">
         <v>5</v>
@@ -2220,17 +2220,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2264,37 +2264,37 @@
         <v>5</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>3</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O23">
         <v>5</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <v>3</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U23">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W23">
         <v>3</v>
@@ -2303,7 +2303,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2359,22 +2359,22 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q24">
         <v>5</v>
       </c>
       <c r="R24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U24">
-        <v>0.8888888888888888</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V24">
         <v>3</v>
@@ -2386,7 +2386,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2430,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -2442,25 +2442,25 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="U25">
-        <v>0.7555555555555555</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W25">
         <v>3</v>
@@ -2469,17 +2469,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2501,10 +2501,10 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2528,19 +2528,19 @@
         <v>3</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U26">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2552,7 +2552,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2596,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27">
         <v>3</v>
@@ -2620,10 +2620,10 @@
         <v>1</v>
       </c>
       <c r="T27">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U27">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -2635,7 +2635,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2664,25 +2664,25 @@
         </is>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L28">
         <v>5</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <v>5</v>
@@ -2691,25 +2691,25 @@
         <v>5</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R28">
         <v>3</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U28">
-        <v>0.8222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W28">
         <v>3</v>
@@ -2718,83 +2718,166 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Twisp River Middle 06</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>37</v>
+      </c>
+      <c r="U29">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>White River Lower 08</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Lower White River</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>5</v>
-      </c>
-      <c r="M29">
-        <v>5</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>3</v>
-      </c>
-      <c r="Q29">
-        <v>5</v>
-      </c>
-      <c r="R29">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
         <v>4</v>
       </c>
-      <c r="S29">
-        <v>5</v>
-      </c>
-      <c r="T29">
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
         <v>34</v>
       </c>
-      <c r="U29">
+      <c r="U30">
         <v>0.7555555555555555</v>
       </c>
-      <c r="V29">
-        <v>5</v>
-      </c>
-      <c r="W29">
+      <c r="V30">
+        <v>5</v>
+      </c>
+      <c r="W30">
         <v>3</v>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1722,7 +1722,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1751,52 +1751,52 @@
         </is>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
         <v>4</v>
       </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>5</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>5</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U17">
-        <v>0.7111111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="V17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W17">
         <v>3</v>
@@ -1805,7 +1805,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1849,10 +1849,10 @@
         <v>3</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <v>5</v>
@@ -1861,25 +1861,25 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U18">
-        <v>0.8</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W18">
         <v>3</v>
@@ -1888,7 +1888,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1917,52 +1917,52 @@
         </is>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>5</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>5</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19">
         <v>5</v>
       </c>
       <c r="T19">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="U19">
-        <v>0.7111111111111111</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W19">
         <v>3</v>
@@ -1971,7 +1971,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2012,10 +2012,10 @@
         <v>5</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M20">
         <v>5</v>
@@ -2024,37 +2024,37 @@
         <v>5</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S20">
         <v>5</v>
       </c>
       <c r="T20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U20">
-        <v>0.8222222222222222</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2083,13 +2083,13 @@
         </is>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -2098,46 +2098,46 @@
         <v>5</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>5</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S21">
         <v>5</v>
       </c>
       <c r="T21">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2220,17 +2220,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2264,37 +2264,37 @@
         <v>5</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M23">
         <v>3</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O23">
         <v>5</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U23">
-        <v>0.7333333333333333</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W23">
         <v>3</v>
@@ -2303,7 +2303,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2359,22 +2359,22 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q24">
         <v>5</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T24">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U24">
-        <v>0.8222222222222222</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V24">
         <v>3</v>
@@ -2386,7 +2386,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2430,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -2442,25 +2442,25 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q25">
         <v>5</v>
       </c>
       <c r="R25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U25">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W25">
         <v>3</v>
@@ -2469,17 +2469,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2501,10 +2501,10 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -2528,19 +2528,19 @@
         <v>3</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U26">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V26">
         <v>5</v>
@@ -2552,7 +2552,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2596,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27">
         <v>3</v>
@@ -2620,10 +2620,10 @@
         <v>1</v>
       </c>
       <c r="T27">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U27">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V27">
         <v>5</v>
@@ -2635,7 +2635,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2664,25 +2664,25 @@
         </is>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <v>5</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>5</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28">
         <v>5</v>
@@ -2691,25 +2691,25 @@
         <v>5</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28">
         <v>3</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U28">
-        <v>0.7777777777777778</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W28">
         <v>3</v>
@@ -2718,17 +2718,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2759,7 +2759,7 @@
         <v>5</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -2768,116 +2768,33 @@
         <v>5</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q29">
         <v>5</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T29">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U29">
-        <v>0.8222222222222222</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>White River Lower 08</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Lower White River</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>5</v>
-      </c>
-      <c r="M30">
-        <v>5</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>3</v>
-      </c>
-      <c r="Q30">
-        <v>5</v>
-      </c>
-      <c r="R30">
-        <v>4</v>
-      </c>
-      <c r="S30">
-        <v>5</v>
-      </c>
-      <c r="T30">
-        <v>34</v>
-      </c>
-      <c r="U30">
-        <v>0.7555555555555555</v>
-      </c>
-      <c r="V30">
-        <v>5</v>
-      </c>
-      <c r="W30">
         <v>3</v>
       </c>
     </row>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -143,15 +143,12 @@
     <t xml:space="preserve">Entiat River Lake 10</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Potato 03</t>
+    <t xml:space="preserve">Entiat River Potato 05</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River-Potato Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Potato 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Potato 06</t>
   </si>
   <si>
@@ -167,6 +164,12 @@
     <t xml:space="preserve">Entiat River Preston 05</t>
   </si>
   <si>
+    <t xml:space="preserve">Hancock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Little Wenatchee River Lower 03</t>
   </si>
   <si>
@@ -177,9 +180,6 @@
   </si>
   <si>
     <t xml:space="preserve">Methow River Fawn 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Fawn Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Rattlesnake 01</t>
@@ -1603,13 +1603,13 @@
         <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
         <v>5</v>
@@ -1618,37 +1618,37 @@
         <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
         <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
         <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U15" t="n">
-        <v>0.711111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="V15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W15" t="n">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>5</v>
@@ -1704,19 +1704,19 @@
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U16" t="n">
-        <v>0.866666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="V16" t="n">
         <v>3</v>
@@ -1745,13 +1745,13 @@
         <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>5</v>
@@ -1775,22 +1775,22 @@
         <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U17" t="n">
-        <v>0.8</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W17" t="n">
         <v>3</v>
@@ -1804,7 +1804,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1869,13 +1869,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1890,22 +1890,22 @@
         <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
         <v>3</v>
@@ -1914,25 +1914,25 @@
         <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U19" t="n">
-        <v>0.733333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="V19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
         <v>3</v>
@@ -1943,10 +1943,10 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1958,40 +1958,38 @@
         <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H20"/>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
         <v>5</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2011,13 +2009,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -2050,7 +2048,7 @@
         <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -2068,13 +2066,13 @@
         <v>5</v>
       </c>
       <c r="T21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U21" t="n">
-        <v>0.822222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W21" t="n">
         <v>3</v>
@@ -2082,13 +2080,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -2511,7 +2509,7 @@
         <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>64</v>
@@ -2582,7 +2580,7 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
@@ -2653,7 +2651,7 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
@@ -3079,7 +3077,7 @@
         <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>75</v>
@@ -3150,7 +3148,7 @@
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
         <v>75</v>
@@ -3221,7 +3219,7 @@
         <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
         <v>78</v>
@@ -3257,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>1</v>
@@ -3275,13 +3273,13 @@
         <v>5</v>
       </c>
       <c r="T38" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U38" t="n">
-        <v>0.844444444444444</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W38" t="n">
         <v>3</v>
@@ -3399,7 +3397,7 @@
         <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O40" t="n">
         <v>5</v>
@@ -3417,16 +3415,16 @@
         <v>5</v>
       </c>
       <c r="T40" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U40" t="n">
-        <v>0.888888888888889</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="V40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">HQ_Score_Protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 04</t>
+    <t xml:space="preserve">Chewuch River Doe 05</t>
   </si>
   <si>
     <t xml:space="preserve">Methow</t>
@@ -95,9 +95,6 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Pearrygin 08</t>
   </si>
   <si>
@@ -119,7 +116,28 @@
     <t xml:space="preserve">Chewuch River Thirtymile 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Lake 01</t>
+    <t xml:space="preserve">Chikamin Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 02</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat</t>
@@ -134,15 +152,15 @@
     <t xml:space="preserve">Entiat River Lake 04</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Lake 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Lake 08</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 10</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Lake 11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 05</t>
   </si>
   <si>
@@ -161,9 +179,6 @@
     <t xml:space="preserve">Entiat River-Preston Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Preston 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hancock Creek 01</t>
   </si>
   <si>
@@ -173,9 +188,6 @@
     <t xml:space="preserve">Little Wenatchee River Lower 03</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lower Little Wenatchee River</t>
   </si>
   <si>
@@ -203,6 +215,12 @@
     <t xml:space="preserve">Methow River Thompson 08</t>
   </si>
   <si>
+    <t xml:space="preserve">Mill Creek Peshastin 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Peshastin Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nason Creek Lower 01</t>
   </si>
   <si>
@@ -215,6 +233,12 @@
     <t xml:space="preserve">Nason Creek Lower 03</t>
   </si>
   <si>
+    <t xml:space="preserve">Panther Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panther Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Twisp River Middle 01</t>
   </si>
   <si>
@@ -242,13 +266,19 @@
     <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenatchee River Beaver 02</t>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
   </si>
   <si>
     <t xml:space="preserve">White River Lower 08</t>
   </si>
   <si>
-    <t xml:space="preserve">Lower White River</t>
+    <t xml:space="preserve">White River Lower 09</t>
   </si>
   <si>
     <t xml:space="preserve">Wolf Creek 02</t>
@@ -704,25 +734,25 @@
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" t="n">
-        <v>0.711111111111111</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="V2" t="n">
         <v>5</v>
@@ -739,7 +769,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -804,13 +834,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -822,19 +852,19 @@
         <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>3</v>
@@ -846,19 +876,19 @@
         <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
         <v>34</v>
@@ -875,13 +905,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -893,22 +923,22 @@
         <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -917,13 +947,13 @@
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
         <v>3</v>
@@ -932,13 +962,13 @@
         <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="U5" t="n">
-        <v>0.755555555555556</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="V5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
         <v>3</v>
@@ -952,7 +982,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -985,10 +1015,10 @@
         <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1003,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="U6" t="n">
-        <v>0.911111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1023,7 +1053,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -1091,10 +1121,10 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -1115,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
@@ -1145,10 +1175,10 @@
         <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U8" t="n">
-        <v>0.822222222222222</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="V8" t="n">
         <v>3</v>
@@ -1159,13 +1189,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1192,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -1201,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1216,13 +1246,13 @@
         <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W9" t="n">
         <v>3</v>
@@ -1230,13 +1260,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1260,10 +1290,10 @@
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -1272,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1284,16 +1314,16 @@
         <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="U10" t="n">
-        <v>0.888888888888889</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W10" t="n">
         <v>3</v>
@@ -1301,13 +1331,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1319,13 +1349,13 @@
         <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
@@ -1343,25 +1373,25 @@
         <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U11" t="n">
-        <v>0.711111111111111</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V11" t="n">
         <v>5</v>
@@ -1372,13 +1402,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1390,19 +1420,19 @@
         <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
@@ -1411,31 +1441,31 @@
         <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
         <v>5</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="U12" t="n">
-        <v>0.888888888888889</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W12" t="n">
         <v>3</v>
@@ -1443,13 +1473,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1476,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -1485,28 +1515,28 @@
         <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
       </c>
       <c r="T13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U13" t="n">
-        <v>0.822222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W13" t="n">
         <v>3</v>
@@ -1514,13 +1544,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1544,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
@@ -1553,46 +1583,46 @@
         <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="U14" t="n">
-        <v>0.822222222222222</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
@@ -1615,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -1624,10 +1654,10 @@
         <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -1639,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
         <v>39</v>
@@ -1656,13 +1686,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1686,19 +1716,19 @@
         <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -1710,16 +1740,16 @@
         <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U16" t="n">
-        <v>0.8</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W16" t="n">
         <v>3</v>
@@ -1727,13 +1757,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1745,52 +1775,52 @@
         <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
         <v>5</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
         <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="U17" t="n">
-        <v>0.733333333333333</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="V17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
         <v>3</v>
@@ -1798,13 +1828,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1816,13 +1846,13 @@
         <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
@@ -1843,10 +1873,10 @@
         <v>5</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
         <v>3</v>
@@ -1855,10 +1885,10 @@
         <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U18" t="n">
-        <v>0.733333333333333</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V18" t="n">
         <v>5</v>
@@ -1869,13 +1899,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1890,22 +1920,22 @@
         <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
         <v>3</v>
@@ -1914,25 +1944,25 @@
         <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W19" t="n">
         <v>3</v>
@@ -1940,13 +1970,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1958,50 +1988,52 @@
         <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
-      </c>
-      <c r="H20"/>
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>5</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U20" t="n">
-        <v>0.8</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20" t="n">
         <v>3</v>
@@ -2009,13 +2041,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -2029,17 +2061,15 @@
       <c r="G21" t="n">
         <v>5</v>
       </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
+      <c r="H21"/>
       <c r="I21" t="n">
         <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
@@ -2048,19 +2078,19 @@
         <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2080,13 +2110,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -2113,37 +2143,37 @@
         <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U22" t="n">
-        <v>0.8</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W22" t="n">
         <v>3</v>
@@ -2151,13 +2181,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -2169,13 +2199,13 @@
         <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
         <v>5</v>
@@ -2184,10 +2214,10 @@
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
         <v>5</v>
@@ -2199,19 +2229,19 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U23" t="n">
-        <v>0.711111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V23" t="n">
         <v>5</v>
@@ -2222,13 +2252,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -2240,52 +2270,52 @@
         <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
       </c>
       <c r="T24" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U24" t="n">
-        <v>0.822222222222222</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W24" t="n">
         <v>3</v>
@@ -2293,13 +2323,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -2323,10 +2353,10 @@
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
@@ -2335,36 +2365,36 @@
         <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
       </c>
       <c r="T25" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="U25" t="n">
-        <v>0.911111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -2382,13 +2412,13 @@
         <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
         <v>5</v>
@@ -2400,10 +2430,10 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
         <v>5</v>
@@ -2412,22 +2442,22 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
       </c>
       <c r="T26" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="U26" t="n">
-        <v>0.733333333333333</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="V26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
         <v>3</v>
@@ -2435,13 +2465,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -2506,13 +2536,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>26</v>
@@ -2539,37 +2569,37 @@
         <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
         <v>5</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T28" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="U28" t="n">
-        <v>0.822222222222222</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="V28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W28" t="n">
         <v>3</v>
@@ -2577,13 +2607,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -2595,13 +2625,13 @@
         <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>5</v>
@@ -2610,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
@@ -2622,25 +2652,25 @@
         <v>5</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U29" t="n">
-        <v>0.888888888888889</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W29" t="n">
         <v>3</v>
@@ -2648,13 +2678,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -2693,22 +2723,22 @@
         <v>5</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U30" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="V30" t="n">
         <v>3</v>
@@ -2719,13 +2749,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -2740,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
         <v>5</v>
@@ -2767,22 +2797,22 @@
         <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U31" t="n">
-        <v>0.777777777777778</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="V31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
         <v>3</v>
@@ -2790,13 +2820,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -2811,10 +2841,10 @@
         <v>3</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
         <v>5</v>
@@ -2835,10 +2865,10 @@
         <v>5</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
         <v>3</v>
@@ -2847,13 +2877,13 @@
         <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U32" t="n">
-        <v>0.777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="V32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
         <v>3</v>
@@ -2861,13 +2891,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -2891,10 +2921,10 @@
         <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -2903,28 +2933,28 @@
         <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
         <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U33" t="n">
-        <v>0.822222222222222</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W33" t="n">
         <v>3</v>
@@ -2932,13 +2962,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -2950,52 +2980,52 @@
         <v>26</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>5</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
         <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U34" t="n">
-        <v>0.822222222222222</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W34" t="n">
         <v>3</v>
@@ -3003,13 +3033,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -3021,52 +3051,52 @@
         <v>26</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
         <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
         <v>5</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U35" t="n">
-        <v>0.822222222222222</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W35" t="n">
         <v>3</v>
@@ -3074,13 +3104,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -3104,10 +3134,10 @@
         <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -3119,16 +3149,16 @@
         <v>5</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
         <v>37</v>
@@ -3145,13 +3175,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
@@ -3178,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -3190,25 +3220,25 @@
         <v>3</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>5</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T37" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="U37" t="n">
-        <v>0.711111111111111</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="V37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W37" t="n">
         <v>3</v>
@@ -3216,13 +3246,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -3246,7 +3276,7 @@
         <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>5</v>
@@ -3255,31 +3285,31 @@
         <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
       </c>
       <c r="T38" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U38" t="n">
-        <v>0.755555555555556</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="V38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
         <v>3</v>
@@ -3287,13 +3317,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
@@ -3317,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -3326,28 +3356,28 @@
         <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
         <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="U39" t="n">
-        <v>0.711111111111111</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V39" t="n">
         <v>5</v>
@@ -3358,73 +3388,428 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>33</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="V40" t="n">
+        <v>5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>35</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="V41" t="n">
+        <v>5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>33</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="V42" t="n">
+        <v>5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="n">
+        <v>33</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="V43" t="n">
+        <v>5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5</v>
-      </c>
-      <c r="O40" t="n">
-        <v>5</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
         <v>4</v>
       </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
-      <c r="T40" t="n">
-        <v>44</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0.977777777777778</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1</v>
-      </c>
-      <c r="W40" t="n">
-        <v>5</v>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>32</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.711111111111111</v>
+      </c>
+      <c r="V44" t="n">
+        <v>5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>5</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="n">
+        <v>37</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.822222222222222</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3</v>
+      </c>
+      <c r="W45" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Spring_Chinook_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -32,15 +32,6 @@
     <t xml:space="preserve">Bull.Trout.Reach</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stability_Mean</t>
-  </si>
-  <si>
     <t xml:space="preserve">CoarseSubstrate_score</t>
   </si>
   <si>
@@ -101,12 +92,15 @@
     <t xml:space="preserve">Chewuch River-Pearrygin Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 03</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
     <t xml:space="preserve">Middle Chiwawa River</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiwawa River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Chiwawa River</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Lake 02</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t xml:space="preserve">Entiat River Lake 10</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Lake 11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Potato 05</t>
   </si>
   <si>
@@ -170,6 +155,9 @@
     <t xml:space="preserve">Entiat River Potato 06</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 08</t>
   </si>
   <si>
@@ -233,12 +221,6 @@
     <t xml:space="preserve">Nason Creek Lower 03</t>
   </si>
   <si>
-    <t xml:space="preserve">Panther Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panther Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Twisp River Middle 01</t>
   </si>
   <si>
@@ -281,13 +263,10 @@
     <t xml:space="preserve">White River Lower 09</t>
   </si>
   <si>
-    <t xml:space="preserve">Wolf Creek 02</t>
+    <t xml:space="preserve">Wolf Creek 04</t>
   </si>
   <si>
     <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
   </si>
 </sst>
 </file>
@@ -680,330 +659,285 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T2" t="n">
-        <v>33</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V2" t="n">
-        <v>5</v>
-      </c>
-      <c r="W2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0.725</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>33</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5</v>
-      </c>
-      <c r="W3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>34</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.755555555555556</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5</v>
-      </c>
-      <c r="W4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>39</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.866666666666667</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3</v>
-      </c>
-      <c r="W5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
@@ -1012,131 +946,113 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>0.85</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>35</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5</v>
-      </c>
-      <c r="W6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
       </c>
       <c r="T7" t="n">
-        <v>37</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3</v>
-      </c>
-      <c r="W7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>5</v>
@@ -1151,60 +1067,51 @@
         <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>39</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.866666666666667</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3</v>
-      </c>
-      <c r="W8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -1219,69 +1126,60 @@
         <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>0.85</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>34</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.755555555555556</v>
-      </c>
-      <c r="V9" t="n">
-        <v>5</v>
-      </c>
-      <c r="W9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>5</v>
@@ -1290,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -1302,270 +1200,234 @@
         <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>32</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V10" t="n">
-        <v>5</v>
-      </c>
-      <c r="W10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
-        <v>5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>5</v>
-      </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>0.775</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>34</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.755555555555556</v>
-      </c>
-      <c r="V11" t="n">
-        <v>5</v>
-      </c>
-      <c r="W11" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" t="n">
         <v>4</v>
       </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>5</v>
-      </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>0.775</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>34</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.755555555555556</v>
-      </c>
-      <c r="V12" t="n">
-        <v>5</v>
-      </c>
-      <c r="W12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>0.775</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
       </c>
       <c r="T13" t="n">
-        <v>35</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V13" t="n">
-        <v>5</v>
-      </c>
-      <c r="W13" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>5</v>
@@ -1574,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
@@ -1589,48 +1451,39 @@
         <v>5</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>0.95</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>42</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.933333333333333</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W14" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -1645,10 +1498,10 @@
         <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -1657,57 +1510,48 @@
         <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>0.875</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>39</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.866666666666667</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3</v>
-      </c>
-      <c r="W15" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
@@ -1716,13 +1560,13 @@
         <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
         <v>3</v>
@@ -1734,45 +1578,36 @@
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>0.85</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>32</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V16" t="n">
-        <v>5</v>
-      </c>
-      <c r="W16" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
@@ -1781,10 +1616,10 @@
         <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
         <v>3</v>
@@ -1793,75 +1628,66 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>0.775</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>38</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.844444444444444</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3</v>
-      </c>
-      <c r="W17" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -1870,69 +1696,60 @@
         <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
-        <v>35</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V18" t="n">
-        <v>5</v>
-      </c>
-      <c r="W18" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
         <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
@@ -1941,69 +1758,60 @@
         <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>32</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V19" t="n">
-        <v>5</v>
-      </c>
-      <c r="W19" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
@@ -2012,126 +1820,110 @@
         <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T20" t="n">
-        <v>32</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V20" t="n">
-        <v>5</v>
-      </c>
-      <c r="W20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
-      </c>
-      <c r="H21"/>
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
       <c r="I21" t="n">
         <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
       </c>
       <c r="T21" t="n">
-        <v>35</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V21" t="n">
-        <v>5</v>
-      </c>
-      <c r="W21" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
@@ -2143,208 +1935,181 @@
         <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>35</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V22" t="n">
-        <v>5</v>
-      </c>
-      <c r="W22" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>0.775</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" t="n">
-        <v>35</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V23" t="n">
-        <v>5</v>
-      </c>
-      <c r="W23" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>0.725</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
       </c>
       <c r="T24" t="n">
-        <v>32</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V24" t="n">
-        <v>5</v>
-      </c>
-      <c r="W24" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>5</v>
@@ -2353,63 +2118,54 @@
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>0.775</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
       </c>
       <c r="T25" t="n">
-        <v>36</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3</v>
-      </c>
-      <c r="W25" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G26" t="n">
         <v>5</v>
@@ -2418,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>5</v>
@@ -2427,202 +2183,175 @@
         <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>0.85</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
-        <v>39</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.866666666666667</v>
-      </c>
-      <c r="V26" t="n">
-        <v>3</v>
-      </c>
-      <c r="W26" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
         <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>3</v>
       </c>
       <c r="O27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>0.725</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>33</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V27" t="n">
-        <v>5</v>
-      </c>
-      <c r="W27" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
         <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>3</v>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>0.725</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
       </c>
       <c r="T28" t="n">
-        <v>33</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V28" t="n">
-        <v>5</v>
-      </c>
-      <c r="W28" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -2631,282 +2360,246 @@
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
         <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>35</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V29" t="n">
-        <v>5</v>
-      </c>
-      <c r="W29" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
         <v>5</v>
       </c>
       <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="n">
         <v>4</v>
       </c>
-      <c r="J30" t="n">
-        <v>5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="n">
-        <v>5</v>
-      </c>
-      <c r="O30" t="n">
-        <v>5</v>
-      </c>
       <c r="P30" t="n">
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>0.825</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T30" t="n">
-        <v>36</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3</v>
-      </c>
-      <c r="W30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>5</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>0.875</v>
       </c>
       <c r="S31" t="n">
         <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>39</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.866666666666667</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3</v>
-      </c>
-      <c r="W31" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
         <v>5</v>
       </c>
       <c r="I32" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32" t="n">
         <v>4</v>
       </c>
-      <c r="J32" t="n">
-        <v>5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>5</v>
-      </c>
       <c r="P32" t="n">
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>0.825</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>36</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V32" t="n">
-        <v>3</v>
-      </c>
-      <c r="W32" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -2918,78 +2611,69 @@
         <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>32</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V33" t="n">
-        <v>5</v>
-      </c>
-      <c r="W33" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>5</v>
@@ -3001,63 +2685,54 @@
         <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>34</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.755555555555556</v>
-      </c>
-      <c r="V34" t="n">
-        <v>5</v>
-      </c>
-      <c r="W34" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
         <v>5</v>
@@ -3069,63 +2744,54 @@
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>5</v>
       </c>
       <c r="O35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>34</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.755555555555556</v>
-      </c>
-      <c r="V35" t="n">
-        <v>5</v>
-      </c>
-      <c r="W35" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>5</v>
@@ -3134,69 +2800,60 @@
         <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>5</v>
       </c>
       <c r="O36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="S36" t="n">
         <v>3</v>
       </c>
       <c r="T36" t="n">
-        <v>37</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="V36" t="n">
-        <v>3</v>
-      </c>
-      <c r="W36" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>5</v>
@@ -3205,13 +2862,13 @@
         <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>5</v>
@@ -3220,48 +2877,39 @@
         <v>3</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R37" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>37</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="V37" t="n">
-        <v>3</v>
-      </c>
-      <c r="W37" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G38" t="n">
         <v>5</v>
@@ -3270,13 +2918,13 @@
         <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
         <v>5</v>
@@ -3288,57 +2936,48 @@
         <v>5</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>37</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="V38" t="n">
-        <v>3</v>
-      </c>
-      <c r="W38" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G39" t="n">
         <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>5</v>
@@ -3347,69 +2986,60 @@
         <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
         <v>5</v>
       </c>
       <c r="O39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>0.725</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39" t="n">
-        <v>35</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V39" t="n">
-        <v>5</v>
-      </c>
-      <c r="W39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>5</v>
@@ -3418,69 +3048,60 @@
         <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="R40" t="n">
-        <v>3</v>
+        <v>0.775</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
       </c>
       <c r="T40" t="n">
-        <v>33</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V40" t="n">
-        <v>5</v>
-      </c>
-      <c r="W40" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>5</v>
@@ -3492,66 +3113,57 @@
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>5</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
       </c>
       <c r="T41" t="n">
-        <v>35</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V41" t="n">
-        <v>5</v>
-      </c>
-      <c r="W41" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G42" t="n">
         <v>5</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>5</v>
@@ -3560,69 +3172,60 @@
         <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
       </c>
       <c r="T42" t="n">
-        <v>33</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V42" t="n">
-        <v>5</v>
-      </c>
-      <c r="W42" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>5</v>
@@ -3637,178 +3240,27 @@
         <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="S43" t="n">
         <v>3</v>
       </c>
       <c r="T43" t="n">
-        <v>33</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V43" t="n">
-        <v>5</v>
-      </c>
-      <c r="W43" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5</v>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
-      <c r="T44" t="n">
-        <v>32</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V44" t="n">
-        <v>5</v>
-      </c>
-      <c r="W44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="n">
-        <v>5</v>
-      </c>
-      <c r="H45" t="n">
-        <v>5</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>5</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
-      <c r="T45" t="n">
-        <v>37</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="V45" t="n">
-        <v>3</v>
-      </c>
-      <c r="W45" t="n">
         <v>3</v>
       </c>
     </row>
